--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="942">
   <si>
     <t>anchor score</t>
   </si>
@@ -313,664 +313,664 @@
     <t>cause</t>
   </si>
   <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>stolen</t>
+  </si>
+  <si>
+    <t>bastards</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>atm</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>intentionally</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>banned</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>worldwide</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>purpose</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>wage</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>meals</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>prepared</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>crypt</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>pa</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>council</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>stolen</t>
-  </si>
-  <si>
-    <t>bastards</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>atm</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>failure</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>bbc</t>
-  </si>
-  <si>
-    <t>euro</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>intentionally</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>banned</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>worldwide</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>experience</t>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>offered</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>trust</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>wage</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>meals</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>crypt</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>blame</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>pa</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>council</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>offered</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>director</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>em</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>trust</t>
   </si>
   <si>
     <t>appreciation</t>
@@ -3205,10 +3205,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3887,7 +3887,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3937,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -3987,7 +3987,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4137,7 +4137,7 @@
         <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4187,7 +4187,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4237,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -4487,7 +4487,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K27">
         <v>0.9361702127659575</v>
@@ -4537,7 +4537,7 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K28">
         <v>0.9333333333333333</v>
@@ -4637,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K30">
         <v>0.9230769230769231</v>
@@ -4687,7 +4687,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K31">
         <v>0.9230769230769231</v>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K32">
         <v>0.9166666666666666</v>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K34">
         <v>0.9090909090909091</v>
@@ -4887,7 +4887,7 @@
         <v>2</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K35">
         <v>0.9</v>
@@ -4987,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K37">
         <v>0.8976377952755905</v>
@@ -5237,7 +5237,7 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K42">
         <v>0.875</v>
@@ -5287,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K43">
         <v>0.875</v>
@@ -5337,7 +5337,7 @@
         <v>5</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K44">
         <v>0.8666666666666667</v>
@@ -5387,7 +5387,7 @@
         <v>4</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K45">
         <v>0.8636363636363636</v>
@@ -5437,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K46">
         <v>0.8636363636363636</v>
@@ -5487,7 +5487,7 @@
         <v>11</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K47">
         <v>0.8571428571428571</v>
@@ -5537,7 +5537,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K48">
         <v>0.8571428571428571</v>
@@ -5587,7 +5587,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K49">
         <v>0.8571428571428571</v>
@@ -5737,7 +5737,7 @@
         <v>3</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K52">
         <v>0.8518518518518519</v>
@@ -5787,7 +5787,7 @@
         <v>8</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K53">
         <v>0.85</v>
@@ -5837,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K54">
         <v>0.8461538461538461</v>
@@ -5887,7 +5887,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K55">
         <v>0.8421052631578947</v>
@@ -5987,7 +5987,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K57">
         <v>0.8333333333333334</v>
@@ -6137,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6187,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6237,7 +6237,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K62">
         <v>0.8333333333333334</v>
@@ -6337,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K64">
         <v>0.8285714285714286</v>
@@ -6387,7 +6387,7 @@
         <v>2</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K65">
         <v>0.8253968253968254</v>
@@ -6437,7 +6437,7 @@
         <v>4</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K66">
         <v>0.8181818181818182</v>
@@ -6487,7 +6487,7 @@
         <v>18</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K67">
         <v>0.8141025641025641</v>
@@ -6537,7 +6537,7 @@
         <v>14</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K68">
         <v>0.8</v>
@@ -6587,7 +6587,7 @@
         <v>5</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K69">
         <v>0.8</v>
@@ -6687,7 +6687,7 @@
         <v>20</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K71">
         <v>0.8</v>
@@ -6837,7 +6837,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K74">
         <v>0.8</v>
@@ -6987,7 +6987,7 @@
         <v>9</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K77">
         <v>0.7857142857142857</v>
@@ -7037,7 +7037,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K78">
         <v>0.7843137254901961</v>
@@ -7137,7 +7137,7 @@
         <v>6</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K80">
         <v>0.7777777777777778</v>
@@ -7187,28 +7187,28 @@
         <v>3</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>99</v>
+        <v>289</v>
       </c>
       <c r="K81">
-        <v>0.762114537444934</v>
+        <v>0.75</v>
       </c>
       <c r="L81">
-        <v>173</v>
+        <v>6</v>
       </c>
       <c r="M81">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="N81">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -7237,16 +7237,16 @@
         <v>13</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K82">
         <v>0.75</v>
       </c>
       <c r="L82">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7287,16 +7287,16 @@
         <v>7</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K83">
         <v>0.75</v>
       </c>
       <c r="L83">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M83">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7337,28 +7337,28 @@
         <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>293</v>
+        <v>27</v>
       </c>
       <c r="K84">
         <v>0.75</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N84">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7387,7 +7387,7 @@
         <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="K85">
         <v>0.75</v>
@@ -7396,13 +7396,13 @@
         <v>6</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="O85">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
@@ -7437,7 +7437,7 @@
         <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="K86">
         <v>0.75</v>
@@ -7446,16 +7446,16 @@
         <v>6</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -7487,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K87">
         <v>0.75</v>
@@ -7537,16 +7537,16 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K88">
-        <v>0.75</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -7587,28 +7587,28 @@
         <v>4</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="K89">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L89">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -7637,7 +7637,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>54</v>
+        <v>295</v>
       </c>
       <c r="K90">
         <v>0.7272727272727273</v>
@@ -7646,16 +7646,16 @@
         <v>8</v>
       </c>
       <c r="M90">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N90">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -7687,7 +7687,7 @@
         <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="K91">
         <v>0.7272727272727273</v>
@@ -7696,16 +7696,16 @@
         <v>8</v>
       </c>
       <c r="M91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
         <v>3</v>
@@ -7737,7 +7737,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K92">
         <v>0.7272727272727273</v>
@@ -7787,28 +7787,28 @@
         <v>17</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="K93">
-        <v>0.7272727272727273</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L93">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="M93">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="N93">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -7819,25 +7819,25 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D94">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="E94">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F94">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G94" t="b">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K94">
         <v>0.7222222222222222</v>
@@ -7866,25 +7866,25 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1818181818181818</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E95">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="F95">
-        <v>0.12</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>67</v>
@@ -7916,28 +7916,28 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.1764705882352941</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E96">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F96">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G96" t="b">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K96">
         <v>0.7142857142857143</v>
@@ -7966,28 +7966,28 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.1739130434782609</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K97">
         <v>0.7142857142857143</v>
@@ -8019,10 +8019,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -8034,10 +8034,10 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8087,7 +8087,7 @@
         <v>5</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
@@ -8137,7 +8137,7 @@
         <v>5</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K100">
         <v>0.7142857142857143</v>
@@ -8172,22 +8172,22 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101">
         <v>5</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K101">
         <v>0.7121212121212122</v>
@@ -8222,13 +8222,13 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F102">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G102" t="b">
         <v>1</v>
@@ -8237,7 +8237,7 @@
         <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K102">
         <v>0.7</v>
@@ -8272,22 +8272,22 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K103">
         <v>0.7</v>
@@ -8322,22 +8322,22 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K104">
         <v>0.7</v>
@@ -8387,7 +8387,7 @@
         <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K105">
         <v>0.6956521739130435</v>
@@ -8422,13 +8422,13 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E106">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F106">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G106" t="b">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K106">
         <v>0.6888888888888889</v>
@@ -8472,13 +8472,13 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E107">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="F107">
-        <v>0.25</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K107">
         <v>0.6875</v>
@@ -8522,22 +8522,22 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E108">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K108">
         <v>0.6857142857142857</v>
@@ -8566,28 +8566,28 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K109">
         <v>0.6829268292682927</v>
@@ -8622,22 +8622,22 @@
         <v>2</v>
       </c>
       <c r="D110">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>11</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K110">
         <v>0.6818181818181818</v>
@@ -8666,28 +8666,28 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K111">
         <v>0.6666666666666666</v>
@@ -8722,16 +8722,16 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>6</v>
@@ -8772,22 +8772,22 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113">
         <v>6</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -8822,13 +8822,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E114">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F114">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -8837,7 +8837,7 @@
         <v>6</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K114">
         <v>0.6666666666666666</v>
@@ -8869,25 +8869,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D115">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="E115">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="F115">
-        <v>0.17</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K115">
         <v>0.6666666666666666</v>
@@ -8919,25 +8919,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D116">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K116">
         <v>0.6666666666666666</v>
@@ -8972,22 +8972,22 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H117">
         <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K117">
         <v>0.6666666666666666</v>
@@ -9022,13 +9022,13 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F118">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G118" t="b">
         <v>1</v>
@@ -9072,22 +9072,22 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E119">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>6</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K119">
         <v>0.6666666666666666</v>
@@ -9116,13 +9116,13 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -9134,31 +9134,31 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K120">
-        <v>0.656441717791411</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L120">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="M120">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="N120">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O120">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -9172,43 +9172,43 @@
         <v>2</v>
       </c>
       <c r="D121">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121">
         <v>13</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="K121">
-        <v>0.6538461538461539</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L121">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="M121">
-        <v>196</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O121">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121">
-        <v>99</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -9222,13 +9222,13 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>0.9</v>
+        <v>0.33</v>
       </c>
       <c r="F122">
-        <v>0.09999999999999998</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G122" t="b">
         <v>1</v>
@@ -9237,28 +9237,28 @@
         <v>13</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>314</v>
+        <v>170</v>
       </c>
       <c r="K122">
         <v>0.6521739130434783</v>
       </c>
       <c r="L122">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M122">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O122">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -9272,13 +9272,13 @@
         <v>2</v>
       </c>
       <c r="D123">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E123">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="F123">
-        <v>0.6699999999999999</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G123" t="b">
         <v>1</v>
@@ -9287,28 +9287,28 @@
         <v>13</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>172</v>
+        <v>314</v>
       </c>
       <c r="K123">
-        <v>0.6521739130434783</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L123">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M123">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="N123">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9316,28 +9316,28 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.1333333333333333</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D124">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="E124">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F124">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G124" t="b">
         <v>1</v>
       </c>
       <c r="H124">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="K124">
         <v>0.6428571428571429</v>
@@ -9346,16 +9346,16 @@
         <v>9</v>
       </c>
       <c r="M124">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -9366,49 +9366,49 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.1290322580645161</v>
+        <v>0.125</v>
       </c>
       <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>21</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K125">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L125">
+        <v>7</v>
+      </c>
+      <c r="M125">
+        <v>8</v>
+      </c>
+      <c r="N125">
+        <v>0.88</v>
+      </c>
+      <c r="O125">
+        <v>0.12</v>
+      </c>
+      <c r="P125" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q125">
         <v>4</v>
-      </c>
-      <c r="D125">
-        <v>67</v>
-      </c>
-      <c r="E125">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="F125">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="G125" t="b">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>27</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K125">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L125">
-        <v>9</v>
-      </c>
-      <c r="M125">
-        <v>11</v>
-      </c>
-      <c r="N125">
-        <v>0.82</v>
-      </c>
-      <c r="O125">
-        <v>0.18</v>
-      </c>
-      <c r="P125" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q125">
-        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:17">
@@ -9419,10 +9419,10 @@
         <v>0.125</v>
       </c>
       <c r="C126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -9434,10 +9434,10 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
       <c r="K126">
         <v>0.6363636363636364</v>
@@ -9446,16 +9446,16 @@
         <v>7</v>
       </c>
       <c r="M126">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O126">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -9469,46 +9469,46 @@
         <v>0.125</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>316</v>
+        <v>96</v>
       </c>
       <c r="K127">
         <v>0.6363636363636364</v>
       </c>
       <c r="L127">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N127">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O127">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9522,13 +9522,13 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F128">
-        <v>0.2</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -9537,28 +9537,28 @@
         <v>7</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>96</v>
+        <v>316</v>
       </c>
       <c r="K128">
         <v>0.6363636363636364</v>
       </c>
       <c r="L128">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M128">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -9566,25 +9566,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="E129">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>317</v>
@@ -9616,28 +9616,28 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="K130">
         <v>0.6363636363636364</v>
@@ -9646,16 +9646,16 @@
         <v>7</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -9666,49 +9666,49 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E131">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F131">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="K131">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L131">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N131">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O131">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P131" t="b">
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:17">
@@ -9719,46 +9719,46 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C132">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>228</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>152</v>
+        <v>318</v>
       </c>
       <c r="K132">
-        <v>0.6296296296296297</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L132">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="M132">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="N132">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O132">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132">
-        <v>10</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:17">
@@ -9772,16 +9772,16 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E133">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
         <v>8</v>
@@ -9819,25 +9819,25 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K134">
         <v>0.625</v>
@@ -9866,13 +9866,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>319</v>
@@ -9916,28 +9916,28 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D136">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0.85</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
       </c>
       <c r="H136">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K136">
         <v>0.6167979002624672</v>
@@ -9969,25 +9969,25 @@
         <v>0.1</v>
       </c>
       <c r="C137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K137">
         <v>0.609375</v>
@@ -10022,16 +10022,16 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
         <v>9</v>
@@ -10072,16 +10072,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>9</v>
@@ -10116,25 +10116,25 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.1</v>
+        <v>0.09514563106796116</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>9</v>
+        <v>466</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>60</v>
@@ -10166,7 +10166,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10184,7 +10184,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>321</v>
@@ -10216,25 +10216,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.09514563106796116</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C142">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>466</v>
+        <v>10</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>62</v>
@@ -10272,22 +10272,22 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>10</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K143">
         <v>0.5977011494252874</v>
@@ -10322,13 +10322,13 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E144">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F144">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
@@ -10337,7 +10337,7 @@
         <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K144">
         <v>0.59375</v>
@@ -10372,13 +10372,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F145">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10422,13 +10422,13 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E146">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F146">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
@@ -10466,28 +10466,28 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E147">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F147">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K147">
         <v>0.5714285714285714</v>
@@ -10516,25 +10516,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E148">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F148">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>324</v>
@@ -10569,22 +10569,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F149">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>325</v>
@@ -10616,25 +10616,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E150">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>326</v>
@@ -10666,25 +10666,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C151">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="E151">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>327</v>
@@ -10716,13 +10716,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>328</v>
@@ -10769,22 +10769,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>329</v>
@@ -10819,22 +10819,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>330</v>
@@ -10866,7 +10866,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>331</v>
@@ -10916,28 +10916,28 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E156">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F156">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K156">
         <v>0.5333333333333333</v>
@@ -10972,16 +10972,16 @@
         <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
         <v>13</v>
@@ -11022,13 +11022,13 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
@@ -11037,7 +11037,7 @@
         <v>13</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K158">
         <v>0.5238095238095238</v>
@@ -11072,13 +11072,13 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="E159">
-        <v>0.99</v>
+        <v>0.86</v>
       </c>
       <c r="F159">
-        <v>0.01000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
@@ -11087,7 +11087,7 @@
         <v>13</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K159">
         <v>0.52</v>
@@ -11116,25 +11116,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>87</v>
@@ -11166,25 +11166,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E161">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F161">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>333</v>
@@ -11222,13 +11222,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11272,22 +11272,22 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>14</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K163">
         <v>0.5</v>
@@ -11316,25 +11316,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>80</v>
@@ -11366,25 +11366,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.06666666666666667</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>334</v>
@@ -11416,25 +11416,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H166">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>335</v>
@@ -11466,25 +11466,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>336</v>
@@ -11516,25 +11516,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="E168">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="F168">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>337</v>
@@ -11566,7 +11566,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -11584,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>338</v>
@@ -11616,25 +11616,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="E170">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F170">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>79</v>
@@ -11669,10 +11669,10 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -11684,7 +11684,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>339</v>
@@ -11716,28 +11716,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E172">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="F172">
-        <v>0.33</v>
+        <v>0.12</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K172">
         <v>0.5</v>
@@ -11766,25 +11766,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>340</v>
@@ -11816,28 +11816,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E174">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F174">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K174">
         <v>0.5</v>
@@ -11866,25 +11866,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.05</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E175">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="F175">
-        <v>0.17</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>341</v>
@@ -11916,7 +11916,7 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.04761904761904762</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -11934,7 +11934,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>342</v>
@@ -11966,25 +11966,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="F177">
-        <v>0.05000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>343</v>
@@ -12022,13 +12022,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E178">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F178">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -12072,13 +12072,13 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E179">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="F179">
-        <v>0.14</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
@@ -12116,25 +12116,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04347826086956522</v>
+        <v>0.04081632653061224</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E180">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="F180">
-        <v>0.2</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>346</v>
@@ -12166,25 +12166,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>347</v>
@@ -12216,25 +12216,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.04081632653061224</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E182">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>348</v>
@@ -12266,13 +12266,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -12284,10 +12284,10 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K183">
         <v>0.4878048780487805</v>
@@ -12316,25 +12316,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0392156862745098</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>349</v>
@@ -12366,25 +12366,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>350</v>
@@ -12422,13 +12422,13 @@
         <v>1</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E186">
-        <v>0.89</v>
+        <v>0.97</v>
       </c>
       <c r="F186">
-        <v>0.11</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
@@ -12466,25 +12466,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E187">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F187">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>352</v>
@@ -12516,28 +12516,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03846153846153846</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K188">
         <v>0.4545454545454545</v>
@@ -12566,13 +12566,13 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E189">
         <v>0.93</v>
@@ -12584,7 +12584,7 @@
         <v>1</v>
       </c>
       <c r="H189">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>353</v>
@@ -12616,25 +12616,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03636363636363636</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>354</v>
@@ -12666,25 +12666,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>355</v>
@@ -12716,28 +12716,28 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192" t="b">
+        <v>0</v>
+      </c>
+      <c r="H192">
         <v>30</v>
       </c>
-      <c r="E192">
-        <v>0.97</v>
-      </c>
-      <c r="F192">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192">
-        <v>29</v>
-      </c>
       <c r="J192" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K192">
         <v>0.4444444444444444</v>
@@ -12766,7 +12766,7 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C193">
         <v>1</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>356</v>
@@ -12816,7 +12816,7 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03225806451612903</v>
+        <v>0.03125</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>357</v>
@@ -12866,25 +12866,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03225806451612903</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>94</v>
@@ -12916,7 +12916,7 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03125</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>358</v>
@@ -12966,25 +12966,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03076923076923077</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E197">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>359</v>
@@ -13016,25 +13016,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0303030303030303</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>360</v>
@@ -13066,7 +13066,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.02941176470588235</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -13084,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>361</v>
@@ -13116,25 +13116,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E200">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>362</v>
@@ -13166,7 +13166,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>363</v>
@@ -13216,25 +13216,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>364</v>
@@ -13316,25 +13316,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>366</v>
@@ -13366,28 +13366,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K205">
         <v>0.4074074074074074</v>
@@ -13416,25 +13416,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02380952380952381</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>367</v>
@@ -13463,28 +13463,28 @@
     </row>
     <row r="207" spans="1:17">
       <c r="A207" s="1" t="s">
-        <v>212</v>
+        <v>6</v>
       </c>
       <c r="B207">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F207">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>368</v>
@@ -13513,28 +13513,28 @@
     </row>
     <row r="208" spans="1:17">
       <c r="A208" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B208">
-        <v>0.02352941176470588</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D208">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E208">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F208">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>369</v>
@@ -13563,10 +13563,10 @@
     </row>
     <row r="209" spans="1:17">
       <c r="A209" s="1" t="s">
-        <v>6</v>
+        <v>213</v>
       </c>
       <c r="B209">
-        <v>0.02325581395348837</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13584,7 +13584,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>53</v>
@@ -13616,25 +13616,25 @@
         <v>214</v>
       </c>
       <c r="B210">
-        <v>0.02317880794701987</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="C210">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="E210">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F210">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>78</v>
@@ -13666,25 +13666,25 @@
         <v>215</v>
       </c>
       <c r="B211">
-        <v>0.02127659574468085</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E211">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F211">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>370</v>
@@ -13716,25 +13716,25 @@
         <v>216</v>
       </c>
       <c r="B212">
-        <v>0.0196078431372549</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E212">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F212">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>371</v>
@@ -13766,25 +13766,25 @@
         <v>217</v>
       </c>
       <c r="B213">
-        <v>0.01886792452830189</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E213">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="F213">
-        <v>0.06999999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>372</v>
@@ -13816,28 +13816,28 @@
         <v>218</v>
       </c>
       <c r="B214">
-        <v>0.01818181818181818</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="J214" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K214">
         <v>0.3809523809523809</v>
@@ -13866,7 +13866,7 @@
         <v>219</v>
       </c>
       <c r="B215">
-        <v>0.01639344262295082</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -13884,7 +13884,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>373</v>
@@ -13916,25 +13916,25 @@
         <v>220</v>
       </c>
       <c r="B216">
-        <v>0.01612903225806452</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="E216">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F216">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>374</v>
@@ -13972,13 +13972,13 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E217">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F217">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
@@ -14016,25 +14016,25 @@
         <v>222</v>
       </c>
       <c r="B218">
-        <v>0.01351351351351351</v>
+        <v>0.0125</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="E218">
-        <v>0.99</v>
+        <v>0.67</v>
       </c>
       <c r="F218">
-        <v>0.01000000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>376</v>
@@ -14066,25 +14066,25 @@
         <v>223</v>
       </c>
       <c r="B219">
-        <v>0.01351351351351351</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>377</v>
@@ -14116,25 +14116,25 @@
         <v>224</v>
       </c>
       <c r="B220">
-        <v>0.0125</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F220">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>378</v>
@@ -14166,25 +14166,25 @@
         <v>225</v>
       </c>
       <c r="B221">
-        <v>0.01149425287356322</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E221">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F221">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>379</v>
@@ -14216,25 +14216,25 @@
         <v>226</v>
       </c>
       <c r="B222">
-        <v>0.009900990099009901</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E222">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F222">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>380</v>
@@ -14266,25 +14266,25 @@
         <v>227</v>
       </c>
       <c r="B223">
-        <v>0.009345794392523364</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E223">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="F223">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>381</v>
@@ -14316,25 +14316,25 @@
         <v>228</v>
       </c>
       <c r="B224">
-        <v>0.009174311926605505</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F224">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>382</v>
@@ -14366,28 +14366,28 @@
         <v>229</v>
       </c>
       <c r="B225">
-        <v>0.008547008547008548</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E225">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F225">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K225">
         <v>0.375</v>
@@ -14416,28 +14416,28 @@
         <v>230</v>
       </c>
       <c r="B226">
-        <v>0.008333333333333333</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F226">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H226">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K226">
         <v>0.3636363636363636</v>
@@ -14466,25 +14466,25 @@
         <v>231</v>
       </c>
       <c r="B227">
-        <v>0.007246376811594203</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E227">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F227">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>383</v>
@@ -14516,25 +14516,25 @@
         <v>232</v>
       </c>
       <c r="B228">
-        <v>0.006024096385542169</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>384</v>
@@ -14566,25 +14566,25 @@
         <v>233</v>
       </c>
       <c r="B229">
-        <v>0.005917159763313609</v>
+        <v>0.003436426116838488</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E229">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F229">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>385</v>
@@ -14616,25 +14616,25 @@
         <v>234</v>
       </c>
       <c r="B230">
-        <v>0.004807692307692308</v>
+        <v>0.003367003367003367</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E230">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F230">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>207</v>
+        <v>296</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>386</v>
@@ -14666,25 +14666,25 @@
         <v>235</v>
       </c>
       <c r="B231">
-        <v>0.003436426116838488</v>
+        <v>0.0025</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E231">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F231">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>290</v>
+        <v>399</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>387</v>
@@ -14716,25 +14716,25 @@
         <v>236</v>
       </c>
       <c r="B232">
-        <v>0.003367003367003367</v>
+        <v>0.001818181818181818</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E232">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F232">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>296</v>
+        <v>549</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>388</v>
@@ -14766,25 +14766,25 @@
         <v>237</v>
       </c>
       <c r="B233">
-        <v>0.0025</v>
+        <v>0.001453488372093023</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E233">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F233">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>399</v>
+        <v>2061</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>389</v>
@@ -14816,25 +14816,25 @@
         <v>238</v>
       </c>
       <c r="B234">
-        <v>0.001818181818181818</v>
+        <v>0.001187648456057007</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E234">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F234">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>549</v>
+        <v>841</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>390</v>
@@ -14866,25 +14866,25 @@
         <v>239</v>
       </c>
       <c r="B235">
-        <v>0.001453488372093023</v>
+        <v>0.001182033096926714</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="E235">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F235">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>2061</v>
+        <v>845</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>391</v>
@@ -14916,28 +14916,28 @@
         <v>240</v>
       </c>
       <c r="B236">
-        <v>0.001187648456057007</v>
+        <v>0.001160092807424594</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E236">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F236">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K236">
         <v>0.3529411764705883</v>
@@ -14966,25 +14966,25 @@
         <v>241</v>
       </c>
       <c r="B237">
-        <v>0.001182033096926714</v>
+        <v>0.000877963125548727</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E237">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F237">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>845</v>
+        <v>1138</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>392</v>
@@ -15016,25 +15016,25 @@
         <v>242</v>
       </c>
       <c r="B238">
-        <v>0.001160092807424594</v>
+        <v>0.0006331117442228553</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E238">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F238">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>861</v>
+        <v>3157</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>393</v>
@@ -15066,28 +15066,28 @@
         <v>243</v>
       </c>
       <c r="B239">
-        <v>0.000877963125548727</v>
+        <v>0.0003334444814938313</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="E239">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F239">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>1138</v>
+        <v>2998</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K239">
         <v>0.3414634146341464</v>
@@ -15112,32 +15112,8 @@
       </c>
     </row>
     <row r="240" spans="1:17">
-      <c r="A240" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B240">
-        <v>0.0006331117442228553</v>
-      </c>
-      <c r="C240">
-        <v>2</v>
-      </c>
-      <c r="D240">
-        <v>44</v>
-      </c>
-      <c r="E240">
-        <v>0.95</v>
-      </c>
-      <c r="F240">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G240" t="b">
-        <v>1</v>
-      </c>
-      <c r="H240">
-        <v>3157</v>
-      </c>
       <c r="J240" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K240">
         <v>0.3368421052631579</v>
@@ -15161,31 +15137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
-      <c r="A241" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B241">
-        <v>0.0003334444814938313</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241">
-        <v>109</v>
-      </c>
-      <c r="E241">
-        <v>0.99</v>
-      </c>
-      <c r="F241">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G241" t="b">
-        <v>1</v>
-      </c>
-      <c r="H241">
-        <v>2998</v>
-      </c>
+    <row r="241" spans="10:17">
       <c r="J241" s="1" t="s">
         <v>394</v>
       </c>
@@ -15211,7 +15163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="10:17">
       <c r="J242" s="1" t="s">
         <v>395</v>
       </c>
@@ -15237,7 +15189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="10:17">
       <c r="J243" s="1" t="s">
         <v>75</v>
       </c>
@@ -15263,7 +15215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="10:17">
       <c r="J244" s="1" t="s">
         <v>396</v>
       </c>
@@ -15289,7 +15241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="10:17">
       <c r="J245" s="1" t="s">
         <v>397</v>
       </c>
@@ -15315,7 +15267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="10:17">
       <c r="J246" s="1" t="s">
         <v>398</v>
       </c>
@@ -15341,7 +15293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="10:17">
       <c r="J247" s="1" t="s">
         <v>399</v>
       </c>
@@ -15367,7 +15319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="10:17">
       <c r="J248" s="1" t="s">
         <v>400</v>
       </c>
@@ -15393,7 +15345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="10:17">
       <c r="J249" s="1" t="s">
         <v>401</v>
       </c>
@@ -15419,7 +15371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="10:17">
       <c r="J250" s="1" t="s">
         <v>402</v>
       </c>
@@ -15445,7 +15397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="10:17">
       <c r="J251" s="1" t="s">
         <v>92</v>
       </c>
@@ -15471,7 +15423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="10:17">
       <c r="J252" s="1" t="s">
         <v>403</v>
       </c>
@@ -15497,7 +15449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="10:17">
       <c r="J253" s="1" t="s">
         <v>404</v>
       </c>
@@ -15523,7 +15475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="10:17">
       <c r="J254" s="1" t="s">
         <v>405</v>
       </c>
@@ -15549,7 +15501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="10:17">
       <c r="J255" s="1" t="s">
         <v>406</v>
       </c>
@@ -15575,7 +15527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="10:17">
       <c r="J256" s="1" t="s">
         <v>407</v>
       </c>
@@ -15707,7 +15659,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K261">
         <v>0.3333333333333333</v>
@@ -15967,7 +15919,7 @@
     </row>
     <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K271">
         <v>0.32</v>
@@ -15993,7 +15945,7 @@
     </row>
     <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K272">
         <v>0.3181818181818182</v>
@@ -16019,7 +15971,7 @@
     </row>
     <row r="273" spans="10:17">
       <c r="J273" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K273">
         <v>0.3157894736842105</v>
@@ -16071,7 +16023,7 @@
     </row>
     <row r="275" spans="10:17">
       <c r="J275" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K275">
         <v>0.3076923076923077</v>
@@ -16123,7 +16075,7 @@
     </row>
     <row r="277" spans="10:17">
       <c r="J277" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K277">
         <v>0.3055555555555556</v>
@@ -16149,7 +16101,7 @@
     </row>
     <row r="278" spans="10:17">
       <c r="J278" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K278">
         <v>0.3035714285714285</v>
@@ -16383,7 +16335,7 @@
     </row>
     <row r="287" spans="10:17">
       <c r="J287" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K287">
         <v>0.2857142857142857</v>
@@ -16461,7 +16413,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K290">
         <v>0.2857142857142857</v>
@@ -16669,7 +16621,7 @@
     </row>
     <row r="298" spans="10:17">
       <c r="J298" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K298">
         <v>0.2857142857142857</v>
@@ -16721,7 +16673,7 @@
     </row>
     <row r="300" spans="10:17">
       <c r="J300" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K300">
         <v>0.2857142857142857</v>
@@ -16851,7 +16803,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K305">
         <v>0.2822384428223844</v>
@@ -16955,7 +16907,7 @@
     </row>
     <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K309">
         <v>0.2692307692307692</v>
@@ -16981,7 +16933,7 @@
     </row>
     <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K310">
         <v>0.2666666666666667</v>
@@ -17033,7 +16985,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K312">
         <v>0.2666666666666667</v>
@@ -17059,7 +17011,7 @@
     </row>
     <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K313">
         <v>0.2666666666666667</v>
@@ -17085,7 +17037,7 @@
     </row>
     <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K314">
         <v>0.2658227848101266</v>
@@ -17579,7 +17531,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K333">
         <v>0.2424242424242424</v>
@@ -17735,7 +17687,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K339">
         <v>0.2307692307692308</v>
@@ -18125,7 +18077,7 @@
     </row>
     <row r="354" spans="10:17">
       <c r="J354" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K354">
         <v>0.2149532710280374</v>
@@ -18229,7 +18181,7 @@
     </row>
     <row r="358" spans="10:17">
       <c r="J358" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K358">
         <v>0.2142857142857143</v>
@@ -18333,7 +18285,7 @@
     </row>
     <row r="362" spans="10:17">
       <c r="J362" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K362">
         <v>0.2121212121212121</v>
@@ -18411,7 +18363,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K365">
         <v>0.2083333333333333</v>
@@ -18775,7 +18727,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K379">
         <v>0.1818181818181818</v>
@@ -18853,7 +18805,7 @@
     </row>
     <row r="382" spans="10:17">
       <c r="J382" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K382">
         <v>0.1818181818181818</v>
@@ -19295,7 +19247,7 @@
     </row>
     <row r="399" spans="10:17">
       <c r="J399" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K399">
         <v>0.1666666666666667</v>
@@ -19659,7 +19611,7 @@
     </row>
     <row r="413" spans="10:17">
       <c r="J413" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K413">
         <v>0.154320987654321</v>
@@ -19685,7 +19637,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K414">
         <v>0.1538461538461539</v>
@@ -19971,7 +19923,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K425">
         <v>0.1428571428571428</v>
@@ -20491,7 +20443,7 @@
     </row>
     <row r="445" spans="10:17">
       <c r="J445" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K445">
         <v>0.1428571428571428</v>
@@ -20829,7 +20781,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K458">
         <v>0.1290322580645161</v>
@@ -20881,7 +20833,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K460">
         <v>0.1263157894736842</v>
@@ -21141,7 +21093,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K470">
         <v>0.125</v>
@@ -21869,7 +21821,7 @@
     </row>
     <row r="498" spans="10:17">
       <c r="J498" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K498">
         <v>0.1111111111111111</v>
@@ -22311,7 +22263,7 @@
     </row>
     <row r="515" spans="10:17">
       <c r="J515" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K515">
         <v>0.108695652173913</v>
@@ -22493,7 +22445,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K522">
         <v>0.1</v>
@@ -22649,7 +22601,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K528">
         <v>0.0990990990990991</v>
@@ -22779,7 +22731,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K533">
         <v>0.09090909090909091</v>
@@ -24157,7 +24109,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K586">
         <v>0.07142857142857142</v>
@@ -24183,7 +24135,7 @@
     </row>
     <row r="587" spans="10:17">
       <c r="J587" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K587">
         <v>0.07142857142857142</v>
@@ -24521,7 +24473,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K600">
         <v>0.06666666666666667</v>
@@ -24677,7 +24629,7 @@
     </row>
     <row r="606" spans="10:17">
       <c r="J606" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K606">
         <v>0.0641025641025641</v>
@@ -25379,7 +25331,7 @@
     </row>
     <row r="633" spans="10:17">
       <c r="J633" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K633">
         <v>0.05555555555555555</v>
@@ -25665,7 +25617,7 @@
     </row>
     <row r="644" spans="10:17">
       <c r="J644" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K644">
         <v>0.05375139977603583</v>
@@ -26705,7 +26657,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K684">
         <v>0.04504504504504504</v>
@@ -26835,7 +26787,7 @@
     </row>
     <row r="689" spans="10:17">
       <c r="J689" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K689">
         <v>0.04333333333333333</v>
@@ -27225,7 +27177,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K704">
         <v>0.03855421686746988</v>
@@ -27459,7 +27411,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K713">
         <v>0.03691588785046729</v>
@@ -27693,7 +27645,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K722">
         <v>0.03477141017385705</v>
@@ -27823,7 +27775,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K727">
         <v>0.03271028037383177</v>
@@ -27979,7 +27931,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K733">
         <v>0.03225806451612903</v>
@@ -28291,7 +28243,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K745">
         <v>0.03003533568904593</v>
@@ -28421,7 +28373,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K750">
         <v>0.02886836027713626</v>
@@ -28707,7 +28659,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K761">
         <v>0.02666666666666667</v>
@@ -28915,7 +28867,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K769">
         <v>0.02469135802469136</v>
@@ -29305,7 +29257,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K784">
         <v>0.02272727272727273</v>
@@ -29617,7 +29569,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K796">
         <v>0.02127659574468085</v>
@@ -29643,7 +29595,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K797">
         <v>0.02083333333333333</v>
@@ -29851,7 +29803,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K805">
         <v>0.01896551724137931</v>
@@ -30137,7 +30089,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K816">
         <v>0.01612903225806452</v>
@@ -30527,7 +30479,7 @@
     </row>
     <row r="831" spans="10:17">
       <c r="J831" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K831">
         <v>0.01312910284463895</v>
@@ -30761,7 +30713,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K840">
         <v>0.01003344481605351</v>
@@ -30969,7 +30921,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K848">
         <v>0.00684931506849315</v>
@@ -31255,7 +31207,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K859">
         <v>0.002141327623126338</v>
